--- a/biology/Médecine/Hans_Wilhelm_Münch/Hans_Wilhelm_Münch.xlsx
+++ b/biology/Médecine/Hans_Wilhelm_Münch/Hans_Wilhelm_Münch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hans_Wilhelm_M%C3%BCnch</t>
+          <t>Hans_Wilhelm_Münch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hans Wilhelm Münch (14 mai 1911 - 11 décembre 2001) est un membre du parti nazi qui travailla comme médecin SS au cours de la Seconde Guerre mondiale dans le camp de concentration d'Auschwitz, de 1943 à 1945, en Pologne occupée.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hans_Wilhelm_M%C3%BCnch</t>
+          <t>Hans_Wilhelm_Münch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,58 +526,63 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Münch étudia la médecine à l'université de Tübingen et à l'université de Munich.
 En 1934, il s'engagea dans la section politique des étudiants de l'université en rejoignant l' Union des étudiants nationaux-socialistes allemands. En mai 1937, il rejoignit le NSDAP puis obtint son doctorat et épousa une femme médecin en 1939.
 Au début de la Seconde Guerre mondiale, il fut affecté comme médecin remplaçant dans l'armée.
-Auschwitz
-En juin 1943, il fut recruté comme chercheur par la Waffen-SS et fut envoyé à l'Institut d'Hygiène de la Waffen-SS à Raisko, à environ 4 km du principal camp d'Auschwitz. Münch travailla aux côtés du médecin SS Josef Mengele. Dans le cadre de ses expérimentations, il a notamment procédé à des injections sur des déportés juifs souffrant de paludisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auschwitz</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 1943, il fut recruté comme chercheur par la Waffen-SS et fut envoyé à l'Institut d'Hygiène de la Waffen-SS à Raisko, à environ 4 km du principal camp d'Auschwitz. Münch travailla aux côtés du médecin SS Josef Mengele. Dans le cadre de ses expérimentations, il a notamment procédé à des injections sur des déportés juifs souffrant de paludisme.
 À l'été 1944, il est promu SS-Untersturmführer (sous-lieutenant).
 Après l'évacuation d'Auschwitz en 1945, Münch travaillera trois mois au camp de concentration de Dachau, près de Munich.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hans_Wilhelm_M%C3%BCnch</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Procès en Pologne</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 1945, Münch fut arrêté dans un camp d'internement américain quand il fut identifié comme médecin SS. Il fut transféré en Pologne en 1946 pour y être jugé lors du procès d'Auschwitz.
-Cependant, certains rescapés témoignèrent en sa faveur. De plus, il coopéra avec les autorités en rédigeant un rapport sur l'alimentation des déportés et leur espérance de vie[1] et réussit à être acquitté le 22 décembre 1947. Le Tribunal national suprême l'acquitta principalement pour son refus de participer aux sélections et par manque de preuves. Sur les 40 personnes jugées à Cracovie, seul Münch fut acquitté[2]. Il fut surnommé « le Bon Homme d'Auschwitz »[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hans_Wilhelm_M%C3%BCnch</t>
+          <t>Hans_Wilhelm_Münch</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +597,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Procès en Pologne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 1945, Münch fut arrêté dans un camp d'internement américain quand il fut identifié comme médecin SS. Il fut transféré en Pologne en 1946 pour y être jugé lors du procès d'Auschwitz.
+Cependant, certains rescapés témoignèrent en sa faveur. De plus, il coopéra avec les autorités en rédigeant un rapport sur l'alimentation des déportés et leur espérance de vie et réussit à être acquitté le 22 décembre 1947. Le Tribunal national suprême l'acquitta principalement pour son refus de participer aux sélections et par manque de preuves. Sur les 40 personnes jugées à Cracovie, seul Münch fut acquitté. Il fut surnommé « le Bon Homme d'Auschwitz ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Après-guerre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1964, Münch témoigna au procès de Francfort et dans de nombreux autres procès, notamment appelé pour son avis d'expert et son vécu.
 En Allemagne de l'Ouest, Münch prit part aux nombreuses cérémonies de commémoration. En 1995, pour le 50e anniversaire de la libération d'Auschwitz, il prit part à l'hommage rendu aux victimes du nazisme. Münch fut invité par Eva Mozes Kor, une survivante des expériences sur les jumeaux de Josef Mengele. Münch et Kor firent des déclarations publiques sur la barbarie des expériences médicales nazies, en déclarant qu'une telle chose ne devrait jamais se reproduire.
@@ -594,44 +647,151 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hans_Wilhelm_M%C3%BCnch</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, Münch fit plusieurs déclarations controversées qui engendrèrent des poursuites contre lui et firent exploser le mythe du "bon docteur Münch". Le journaliste Bruno Schirra publia une interview de Münch, réalisée un an plus tôt, dans Der Spiegel. Schirra et Münch regardèrent le film La Liste de Schindler, et Schirra réalisa une interview directement après le visionnage où Münch critiqua violemment le film.
 Quelques jours plus tard, Dirk Münch, le fils de Hans Münch, exprima publiquement son incompréhension à l'égard de cette interview. Il expliqua que son père avait été victime d'un « manque de concentration » et que son état se dégradait. Il critiqua le fait que l'interview fût réalisée directement après la projection du film et malgré l'âge avancé de son père et de la longueur du film. Münch, sous le coup de la fatigue, aurait tenu des propos incohérents. Dirk Münch a déclaré qu'après le film, son père aurait même confondu ses animaux de compagnie. Un cinéaste allemand qui réalisa un documentaire sur Münch déclara également que ce dernier n'était pas sain d'esprit. Il fut plus tard diagnostiqué de la maladie d'Alzheimer.
-La procédure pénale (1998)
-Le ministère de la Justice bavarois engagea des poursuites pénales au sujet de l'interview et du passé de Münch. Les autorités consultèrent les fichiers de la police secrète de l'Allemagne de l'Est (RDA) et exigèrent les enregistrements des entretiens de Münch afin de déterminer sur quelles bases le procureur de la république pouvait poursuivre. La justice enquêta sur:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La procédure pénale (1998)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère de la Justice bavarois engagea des poursuites pénales au sujet de l'interview et du passé de Münch. Les autorités consultèrent les fichiers de la police secrète de l'Allemagne de l'Est (RDA) et exigèrent les enregistrements des entretiens de Münch afin de déterminer sur quelles bases le procureur de la république pouvait poursuivre. La justice enquêta sur:
 sa participation aux sélections directement sur les rampes d'arrivées
 sa participation aux sélections dans le camp de concentration
 sa participation à des expériences médicales conduisant à la mort de prisonniers
 Les poursuites pénales furent abandonnées en janvier 2000, en raison de sa maladie. Le docteur Münch mourut un an plus tard.
-Film documentaire (1999)
-Le Dr Münch est apparu dans un documentaire de la Die letzten Tage, qui fut publié en 1999 aux États-Unis et en Allemagne en mars 2000. En tant que témoin d'époque, il rencontra et parla avec une survivante du camp, Renée Firestone, dont la sœur était morte à Auschwitz au cours d'expériences médicales.
-Poursuites et condamnation en France
-Dans une interview passée sur les ondes[Quand ?] de France Inter dans l'émission Là-bas si j'y suis[4], le médecin nazi étale avec impudence et mépris ses opinions nazies. Il déclara que les Roms étaient « pathétiques » et que les chambres à gaz étaient la seule solution pour eux. La justice française, saisie en 1999, le condamne en 2001 pour « provocation à la haine raciale et apologie de crime contre l'humanité ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Film documentaire (1999)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Münch est apparu dans un documentaire de la Die letzten Tage, qui fut publié en 1999 aux États-Unis et en Allemagne en mars 2000. En tant que témoin d'époque, il rencontra et parla avec une survivante du camp, Renée Firestone, dont la sœur était morte à Auschwitz au cours d'expériences médicales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hans_Wilhelm_Münch</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Wilhelm_M%C3%BCnch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poursuites et condamnation en France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une interview passée sur les ondes[Quand ?] de France Inter dans l'émission Là-bas si j'y suis, le médecin nazi étale avec impudence et mépris ses opinions nazies. Il déclara que les Roms étaient « pathétiques » et que les chambres à gaz étaient la seule solution pour eux. La justice française, saisie en 1999, le condamne en 2001 pour « provocation à la haine raciale et apologie de crime contre l'humanité ».
 </t>
         </is>
       </c>
